--- a/Uploads/Reading_valid.xlsx
+++ b/Uploads/Reading_valid.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -433,10 +433,25 @@
 </t>
   </si>
   <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Answer 3</t>
+  </si>
+  <si>
+    <t>Answer 4</t>
+  </si>
+  <si>
+    <t>source 1</t>
+  </si>
+  <si>
     <t>Table1.png</t>
   </si>
   <si>
-    <t>[Table1.png] 
+    <t>[Table1.png ] 
 The questions 1-7 refer to the following schedule and email</t>
   </si>
   <si>
@@ -455,21 +470,6 @@
 While skills themselves cannot be sold, there are ways to monetize them. Amazon unveiled in-skill purchasing (ISP) for Alexa skills in May 2018, which allows developers to sell a one-time purchase for feature or content upgrades, or offer premium content subscriptions. If the Alexa skill drives customer engagement, developers can earn money through Alexa Developer Rewards. Also, goods and services can be sold through Alexa skills.
 Startups that want to build new products and services with AVS or ASK also have the opportunity to apply to the Alexa Fund, a $100 million fund for investing in new voice technologies.
 </t>
-  </si>
-  <si>
-    <t>Answer 1</t>
-  </si>
-  <si>
-    <t>Answer 2</t>
-  </si>
-  <si>
-    <t>Answer 3</t>
-  </si>
-  <si>
-    <t>Answer 4</t>
-  </si>
-  <si>
-    <t>source 1555</t>
   </si>
 </sst>
 </file>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,16 +1067,16 @@
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -1090,14 +1090,14 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>14</v>
@@ -1306,11 +1306,11 @@
         <v>10</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>78</v>

--- a/Uploads/Reading_valid.xlsx
+++ b/Uploads/Reading_valid.xlsx
@@ -169,18 +169,10 @@
     <t>Sub-Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Who would be most interested in attending this conference?
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Where will Louise be at 10.00?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">What is the topic of Louise’s presentation?
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">What time does Louise want to meet Rick?
 </t>
   </si>
@@ -197,9 +189,6 @@
 </t>
   </si>
   <si>
-    <t>An insurance agent</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Room 3
 </t>
   </si>
@@ -209,10 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve"> It’s better than The Garden View Restaurant.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lunch is complimentary to conference attendees and presenters.
 </t>
   </si>
   <si>
@@ -471,6 +456,113 @@
 Startups that want to build new products and services with AVS or ASK also have the opportunity to apply to the Alexa Fund, a $100 million fund for investing in new voice technologies.
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Lunch is </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>complimentary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to conference attendees and presenters.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insurance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> agent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Who would be most </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in attending this conference?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the topic of Louise’s </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>presentation?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +619,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -982,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,16 +1167,16 @@
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -1090,32 +1190,32 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="J6" s="9">
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -1129,22 +1229,22 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="10">
         <v>2</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
@@ -1158,22 +1258,22 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="8" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="J8" s="10">
         <v>4</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -1187,7 +1287,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="10">
         <v>2</v>
@@ -1199,7 +1299,7 @@
         <v>12.3</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N9" s="7">
         <v>1.1499999999999999</v>
@@ -1216,22 +1316,22 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J10" s="10">
         <v>3</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="60" x14ac:dyDescent="0.25">
@@ -1245,22 +1345,22 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="60" x14ac:dyDescent="0.25">
@@ -1274,22 +1374,22 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="10">
         <v>4</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,29 +1406,29 @@
         <v>10</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J13" s="10">
         <v>4</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="60" x14ac:dyDescent="0.25">
@@ -1342,22 +1442,22 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J14" s="10">
         <v>2</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="60" x14ac:dyDescent="0.25">
@@ -1371,22 +1471,22 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J15" s="10">
         <v>2</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="60" x14ac:dyDescent="0.25">
@@ -1400,22 +1500,22 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J16" s="10">
         <v>3</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="75" x14ac:dyDescent="0.25">
@@ -1429,22 +1529,22 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J17" s="10">
         <v>3</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="45" x14ac:dyDescent="0.25">
@@ -1458,22 +1558,22 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J18" s="10">
         <v>2</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="90" x14ac:dyDescent="0.25">
@@ -1487,22 +1587,22 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J19" s="10">
         <v>3</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="30" x14ac:dyDescent="0.25">
@@ -1516,22 +1616,22 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J20" s="10">
         <v>2</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
